--- a/2-matrix/graphs/Data.xlsx
+++ b/2-matrix/graphs/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bogdan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docs\CSA-Projects\2-matrix\graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136183E7-0A4A-448F-9745-7E2DE0E3B8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CF5E5F-C64B-4BBD-9D82-8F8DE93B325F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE8FA234-1FE4-4A49-B5DE-A155660A9780}"/>
   </bookViews>
@@ -882,22 +882,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.53038919999999989</c:v>
+                  <c:v>0.42715879999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7871402000000001</c:v>
+                  <c:v>1.4348787999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2084170000000007</c:v>
+                  <c:v>3.3948589999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.2047299999999996</c:v>
+                  <c:v>6.6195331999999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.212708600000003</c:v>
+                  <c:v>11.446588800000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.623507400000001</c:v>
+                  <c:v>18.221257799999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1736,7 +1736,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Comparation</a:t>
+              <a:t>Comparison</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1920,22 +1920,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.53038919999999989</c:v>
+                  <c:v>0.42715879999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7871402000000001</c:v>
+                  <c:v>1.4348787999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2084170000000007</c:v>
+                  <c:v>3.3948589999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.2047299999999996</c:v>
+                  <c:v>6.6195331999999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.212708600000003</c:v>
+                  <c:v>11.446588800000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.623507400000001</c:v>
+                  <c:v>18.221257799999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4953,7 +4953,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+      <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5153,22 +5153,22 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>0.53271299999999999</v>
+        <v>0.42726500000000001</v>
       </c>
       <c r="C9">
-        <v>1.7972079999999999</v>
+        <v>1.4327259999999999</v>
       </c>
       <c r="D9">
-        <v>4.2066980000000003</v>
+        <v>3.3941759999999999</v>
       </c>
       <c r="E9">
-        <v>8.2023840000000003</v>
+        <v>6.6198259999999998</v>
       </c>
       <c r="F9">
-        <v>14.20194</v>
+        <v>11.45083</v>
       </c>
       <c r="G9" s="3">
-        <v>22.625204</v>
+        <v>18.219235999999999</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -5176,22 +5176,22 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>0.52986599999999995</v>
+        <v>0.427346</v>
       </c>
       <c r="C10">
-        <v>1.7879400000000001</v>
+        <v>1.433044</v>
       </c>
       <c r="D10">
-        <v>4.2075779999999998</v>
+        <v>3.393859</v>
       </c>
       <c r="E10">
-        <v>8.2053469999999997</v>
+        <v>6.6182800000000004</v>
       </c>
       <c r="F10">
-        <v>14.211542</v>
+        <v>11.444526</v>
       </c>
       <c r="G10" s="3">
-        <v>22.619786999999999</v>
+        <v>18.220181</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -5199,22 +5199,22 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>0.52988199999999996</v>
+        <v>0.42710199999999998</v>
       </c>
       <c r="C11">
-        <v>1.783466</v>
+        <v>1.4328860000000001</v>
       </c>
       <c r="D11">
-        <v>4.2077470000000003</v>
+        <v>3.3955709999999999</v>
       </c>
       <c r="E11">
-        <v>8.2068949999999994</v>
+        <v>6.6193229999999996</v>
       </c>
       <c r="F11">
-        <v>14.221824</v>
+        <v>11.445876999999999</v>
       </c>
       <c r="G11" s="3">
-        <v>22.619896000000001</v>
+        <v>18.221201000000001</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -5222,22 +5222,22 @@
         <v>4</v>
       </c>
       <c r="B12">
-        <v>0.52978499999999995</v>
+        <v>0.42698399999999997</v>
       </c>
       <c r="C12">
-        <v>1.7833079999999999</v>
+        <v>1.4375739999999999</v>
       </c>
       <c r="D12">
-        <v>4.2093049999999996</v>
+        <v>3.3965139999999998</v>
       </c>
       <c r="E12">
-        <v>8.2045949999999994</v>
+        <v>6.6200640000000002</v>
       </c>
       <c r="F12">
-        <v>14.221161</v>
+        <v>11.446631</v>
       </c>
       <c r="G12" s="3">
-        <v>22.626797</v>
+        <v>18.222467000000002</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -5245,22 +5245,22 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>0.52969999999999995</v>
+        <v>0.427097</v>
       </c>
       <c r="C13">
-        <v>1.783779</v>
+        <v>1.438164</v>
       </c>
       <c r="D13">
-        <v>4.2107570000000001</v>
+        <v>3.3941750000000002</v>
       </c>
       <c r="E13">
-        <v>8.2044289999999993</v>
+        <v>6.6201730000000003</v>
       </c>
       <c r="F13">
-        <v>14.207076000000001</v>
+        <v>11.445080000000001</v>
       </c>
       <c r="G13" s="3">
-        <v>22.625852999999999</v>
+        <v>18.223203999999999</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5269,27 +5269,27 @@
       </c>
       <c r="B14" s="7">
         <f>AVERAGE(B9:B13)</f>
-        <v>0.53038919999999989</v>
+        <v>0.42715879999999995</v>
       </c>
       <c r="C14" s="7">
         <f t="shared" ref="C14" si="1">AVERAGE(C9:C13)</f>
-        <v>1.7871402000000001</v>
+        <v>1.4348787999999999</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" ref="D14" si="2">AVERAGE(D9:D13)</f>
-        <v>4.2084170000000007</v>
+        <v>3.3948589999999994</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" ref="E14" si="3">AVERAGE(E9:E13)</f>
-        <v>8.2047299999999996</v>
+        <v>6.6195331999999993</v>
       </c>
       <c r="F14" s="7">
         <f t="shared" ref="F14" si="4">AVERAGE(F9:F13)</f>
-        <v>14.212708600000003</v>
+        <v>11.446588800000001</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" ref="G14" si="5">AVERAGE(G9:G13)</f>
-        <v>22.623507400000001</v>
+        <v>18.221257799999997</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
